--- a/dist/ID.xlsx
+++ b/dist/ID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\Zanngyou\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\Zanngyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4632395-61FA-4C90-8206-DC2352323AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698A9B6-CD77-4236-869C-44AF2393789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="-5670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="-7230" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>スクリプト</t>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
+    <t>定数</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TimeProGX</t>
+    <t>TimeProGX（社員コード）</t>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -79,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -361,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -382,6 +399,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dist/ID.xlsx
+++ b/dist/ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\Zanngyou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T3046\Documents\01_AUTO_ROUTINE\Zangyou\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698A9B6-CD77-4236-869C-44AF2393789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8422B-4F8B-4C72-B174-CE78455EC60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-7230" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60780" yWindow="4245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -51,6 +51,37 @@
     <t>定時</t>
     <rPh sb="0" eb="2">
       <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←社員コード</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←定時時刻</t>
+    <rPh sb="1" eb="3">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業申請デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト申請する=１、申請しない＝０</t>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,15 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,16 +428,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
